--- a/Redesign/IO/OUTPUT/6-Evergreen Ornaments-2_608-Thymes Seasonal Gift-37_608_PriceTest-Thymes Seasonal Gift-37_621-Evergreen Ornaments-45_621-Evergreen Seasonal Gift-37_7-Evergreen Ornaments-2_.xlsx
+++ b/Redesign/IO/OUTPUT/6-Evergreen Ornaments-2_608-Thymes Seasonal Gift-37_608_PriceTest-Thymes Seasonal Gift-37_621-Evergreen Ornaments-45_621-Evergreen Seasonal Gift-37_7-Evergreen Ornaments-2_.xlsx
@@ -517,17 +517,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Evergreen Ornaments</t>
+          <t>007184</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>09/23/24</t>
+          <t>09/30/24</t>
         </is>
       </c>
     </row>
@@ -577,17 +577,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Evergreen Ornaments</t>
+          <t>007184</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>09/23/24</t>
+          <t>09/30/24</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Evergreen Ornaments</t>
+          <t>007184</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>09/23/24</t>
+          <t>09/30/24</t>
         </is>
       </c>
     </row>
